--- a/src/api/questions.xlsx
+++ b/src/api/questions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\MyFiles\Labs\react\multi-choice-quiz\src\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0778A84-0663-486D-92ED-FF3928030D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED8C31-E92B-46B1-BE63-9CDA2992BF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{26F783E9-BCF1-4B40-A039-20401DE4BD9F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{26F783E9-BCF1-4B40-A039-20401DE4BD9F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ES" sheetId="1" r:id="rId1"/>
+    <sheet name="EN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
   <si>
     <t xml:space="preserve">El enfoque de gestión de producto Agile propone: </t>
   </si>
@@ -200,6 +201,156 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Agile product management approach proposes: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That only price setting should be focused on customers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That in order to create the best possible product, Product Managers should advocate for engaging customers within the organisation and ensure that the voice of the marketplace is heard and heeded.  </t>
+  </si>
+  <si>
+    <t>That product teams should generate better-designed, higher-performing products once every 6 months.</t>
+  </si>
+  <si>
+    <t>All of the above are correct.</t>
+  </si>
+  <si>
+    <t>Which statement about product definition is true according to the agile approach?</t>
+  </si>
+  <si>
+    <t>The product is defined in an immovable way from the beginning to facilitate a stable construction process.</t>
+  </si>
+  <si>
+    <t>The product and its implementation are treated as a project, planning all the necessary milestones and tasks.</t>
+  </si>
+  <si>
+    <t>Flow efficiency, which involves reducing the response time to the market to satisfy users, is encouraged more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of the above. </t>
+  </si>
+  <si>
+    <t>What aspect should the functionalities be prioritised on?</t>
+  </si>
+  <si>
+    <t>The value for the organisation.</t>
+  </si>
+  <si>
+    <t>The value for the customer and the market.</t>
+  </si>
+  <si>
+    <t>The value for the team.</t>
+  </si>
+  <si>
+    <t>The value for stakeholders.</t>
+  </si>
+  <si>
+    <t>What is an MVP?</t>
+  </si>
+  <si>
+    <t>A final product with all possible functionalities.</t>
+  </si>
+  <si>
+    <t>A product that has all the basic characteristics, is functional and meets the minimum requirements requested by customers.</t>
+  </si>
+  <si>
+    <t>An intermediate product with several characteristics that only takes into account customer suggestions, not market requirements.</t>
+  </si>
+  <si>
+    <t>Why is an MVP necessary?</t>
+  </si>
+  <si>
+    <t>An MVP allows us to ensure that we satisfy the customers' requirements as soon as possible, building a product with all the functionalities the customer has imagined.</t>
+  </si>
+  <si>
+    <t>An MVP is used to verify that we meet the organisation's requirements to make the product viable.</t>
+  </si>
+  <si>
+    <t>It is not really necessary or essential.</t>
+  </si>
+  <si>
+    <t>An MVP aims to verify that the product effectively solves a market need before having to invest too many resources in developing it.</t>
+  </si>
+  <si>
+    <t>What is a roadmap?</t>
+  </si>
+  <si>
+    <t>The roadmap is a tool that allows you to graphically present a plan.</t>
+  </si>
+  <si>
+    <t>The roadmap defines the general sequence of steps to take to achieve the product objectives in detail. It is like a project plan.</t>
+  </si>
+  <si>
+    <t>The roadmap defines the general sequence of steps at the top level to take to achieve the product objectives.</t>
+  </si>
+  <si>
+    <t>What data are included in a Roadmap?</t>
+  </si>
+  <si>
+    <t>Dates, objectives, team make-up, tasks.</t>
+  </si>
+  <si>
+    <t>Milestones, objectives, stakeholders, budget, progression.</t>
+  </si>
+  <si>
+    <t>Milestones, stakeholders, tasks, budget, progression.</t>
+  </si>
+  <si>
+    <t>Objectives, stakeholders, budget, progression, tasks.</t>
+  </si>
+  <si>
+    <t>What is a User Story Map?</t>
+  </si>
+  <si>
+    <t>A technique that defines the user's journey with the first product backlog with the help of the PO.</t>
+  </si>
+  <si>
+    <t>A technique that defines the user's journey with the product and results in the first product backlog.</t>
+  </si>
+  <si>
+    <t>A technique that defines the PO's journey with the product and results in the first product backlog.</t>
+  </si>
+  <si>
+    <t>Identify the step that is not involved in the process of preparing a User Story Map:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framing the journey. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building the backbone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying and grouping user activities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dividing the activities into tasks to be carried out. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filling in the blanks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioritising user stories (leave the backbone). </t>
+  </si>
+  <si>
+    <t>'Dividing' groups of user stories/tasks into iterations.</t>
+  </si>
+  <si>
+    <t>What is the Walking Skeleton?</t>
+  </si>
+  <si>
+    <t>The first version with all the technical layers of the product.</t>
+  </si>
+  <si>
+    <t>The most complete end-to-end version of the product with marketable characteristics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The minimum end-to-end version of the product with marketable characteristics. </t>
+  </si>
+  <si>
+    <t>None of the above.</t>
   </si>
 </sst>
 </file>
@@ -553,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7328AFE9-1019-456D-B285-75B7C693B3A6}">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G62" sqref="G1:G62"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1297,4 +1448,757 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C893A7E5-091B-4EE8-A073-0D410720E40A}">
+  <dimension ref="B1:G62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="22.7890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"question:"""&amp;B1&amp;""""</f>
+        <v>question:"The Agile product management approach proposes: "</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"content:"""&amp;C2&amp;""",type:"""&amp;D2&amp;""",value:"&amp;E2</f>
+        <v>content:"That only price setting should be focused on customers. ",type:"A",value:0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G5" si="0">"content:"""&amp;C3&amp;""",type:"""&amp;D3&amp;""",value:"&amp;E3</f>
+        <v>content:"That in order to create the best possible product, Product Managers should advocate for engaging customers within the organisation and ensure that the voice of the marketplace is heard and heeded.  ",type:"B",value:1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>content:"That product teams should generate better-designed, higher-performing products once every 6 months.",type:"C",value:0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>content:"All of the above are correct.",type:"D",value:0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="str">
+        <f>"question:"""&amp;B7&amp;""""</f>
+        <v>question:"Which statement about product definition is true according to the agile approach?"</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f>"content:"""&amp;C8&amp;""",type:"""&amp;D8&amp;""",value:"&amp;E8</f>
+        <v>content:"The product is defined in an immovable way from the beginning to facilitate a stable construction process.",type:"A",value:0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ref="G9:G11" si="1">"content:"""&amp;C9&amp;""",type:"""&amp;D9&amp;""",value:"&amp;E9</f>
+        <v>content:"The product and its implementation are treated as a project, planning all the necessary milestones and tasks.",type:"B",value:0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>content:"Flow efficiency, which involves reducing the response time to the market to satisfy users, is encouraged more.",type:"C",value:1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>content:"None of the above. ",type:"D",value:0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="str">
+        <f>"question:"""&amp;B13&amp;""""</f>
+        <v>question:"What aspect should the functionalities be prioritised on?"</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"content:"""&amp;C14&amp;""",type:"""&amp;D14&amp;""",value:"&amp;E14</f>
+        <v>content:"The value for the organisation.",type:"A",value:0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15:G17" si="2">"content:"""&amp;C15&amp;""",type:"""&amp;D15&amp;""",value:"&amp;E15</f>
+        <v>content:"The value for the customer and the market.",type:"B",value:1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>content:"The value for the team.",type:"C",value:0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>content:"The value for stakeholders.",type:"D",value:0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"question:"""&amp;B19&amp;""""</f>
+        <v>question:"What is an MVP?"</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f>"content:"""&amp;C20&amp;""",type:"""&amp;D20&amp;""",value:"&amp;E20</f>
+        <v>content:"A final product with all possible functionalities.",type:"A",value:0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ref="G21:G23" si="3">"content:"""&amp;C21&amp;""",type:"""&amp;D21&amp;""",value:"&amp;E21</f>
+        <v>content:"A product that has all the basic characteristics, is functional and meets the minimum requirements requested by customers.",type:"B",value:1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>content:"An intermediate product with several characteristics that only takes into account customer suggestions, not market requirements.",type:"C",value:0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>content:"None of the above. ",type:"D",value:0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="str">
+        <f>"question:"""&amp;B25&amp;""""</f>
+        <v>question:"Why is an MVP necessary?"</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f>"content:"""&amp;C26&amp;""",type:"""&amp;D26&amp;""",value:"&amp;E26</f>
+        <v>content:"An MVP allows us to ensure that we satisfy the customers' requirements as soon as possible, building a product with all the functionalities the customer has imagined.",type:"A",value:0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" ref="G27:G29" si="4">"content:"""&amp;C27&amp;""",type:"""&amp;D27&amp;""",value:"&amp;E27</f>
+        <v>content:"An MVP is used to verify that we meet the organisation's requirements to make the product viable.",type:"B",value:0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="4"/>
+        <v>content:"It is not really necessary or essential.",type:"C",value:0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="4"/>
+        <v>content:"An MVP aims to verify that the product effectively solves a market need before having to invest too many resources in developing it.",type:"D",value:1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="str">
+        <f>"question:"""&amp;B31&amp;""""</f>
+        <v>question:"What is a roadmap?"</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f>"content:"""&amp;C32&amp;""",type:"""&amp;D32&amp;""",value:"&amp;E32</f>
+        <v>content:"The roadmap is a tool that allows you to graphically present a plan.",type:"A",value:0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" ref="G33:G35" si="5">"content:"""&amp;C33&amp;""",type:"""&amp;D33&amp;""",value:"&amp;E33</f>
+        <v>content:"The roadmap defines the general sequence of steps to take to achieve the product objectives in detail. It is like a project plan.",type:"B",value:0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="5"/>
+        <v>content:"The roadmap defines the general sequence of steps at the top level to take to achieve the product objectives.",type:"C",value:1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="5"/>
+        <v>content:"None of the above. ",type:"D",value:0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" t="str">
+        <f>"question:"""&amp;B37&amp;""""</f>
+        <v>question:"What data are included in a Roadmap?"</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <f>"content:"""&amp;C38&amp;""",type:"""&amp;D38&amp;""",value:"&amp;E38</f>
+        <v>content:"Dates, objectives, team make-up, tasks.",type:"A",value:0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" ref="G39:G41" si="6">"content:"""&amp;C39&amp;""",type:"""&amp;D39&amp;""",value:"&amp;E39</f>
+        <v>content:"Milestones, objectives, stakeholders, budget, progression.",type:"B",value:1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="6"/>
+        <v>content:"Milestones, stakeholders, tasks, budget, progression.",type:"C",value:0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="6"/>
+        <v>content:"Objectives, stakeholders, budget, progression, tasks.",type:"D",value:0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" t="str">
+        <f>"question:"""&amp;B43&amp;""""</f>
+        <v>question:"What is a User Story Map?"</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f>"content:"""&amp;C44&amp;""",type:"""&amp;D44&amp;""",value:"&amp;E44</f>
+        <v>content:"A technique that defines the user's journey with the first product backlog with the help of the PO.",type:"A",value:0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" ref="G45:G47" si="7">"content:"""&amp;C45&amp;""",type:"""&amp;D45&amp;""",value:"&amp;E45</f>
+        <v>content:"A technique that defines the user's journey with the product and results in the first product backlog.",type:"B",value:1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="7"/>
+        <v>content:"A technique that defines the PO's journey with the product and results in the first product backlog.",type:"C",value:0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="7"/>
+        <v>content:"None of the above. ",type:"D",value:0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" t="str">
+        <f>"question:"""&amp;B49&amp;""""</f>
+        <v>question:"Identify the step that is not involved in the process of preparing a User Story Map:"</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f>"content:"""&amp;C50&amp;""",type:"""&amp;D50&amp;""",value:"&amp;E50</f>
+        <v>content:"Framing the journey. ",type:"A",value:0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" ref="G51:G56" si="8">"content:"""&amp;C51&amp;""",type:"""&amp;D51&amp;""",value:"&amp;E51</f>
+        <v>content:"Building the backbone. ",type:"B",value:0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="8"/>
+        <v>content:"Identifying and grouping user activities. ",type:"C",value:0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="8"/>
+        <v>content:"Dividing the activities into tasks to be carried out. ",type:"D",value:1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="8"/>
+        <v>content:"Filling in the blanks. ",type:"E",value:0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="8"/>
+        <v>content:"Prioritising user stories (leave the backbone). ",type:"F",value:0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="8"/>
+        <v>content:"'Dividing' groups of user stories/tasks into iterations.",type:"G",value:0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" t="str">
+        <f>"question:"""&amp;B58&amp;""""</f>
+        <v>question:"What is the Walking Skeleton?"</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" ref="G59:G62" si="9">"content:"""&amp;C59&amp;""",type:"""&amp;D59&amp;""",value:"&amp;E59</f>
+        <v>content:"The first version with all the technical layers of the product.",type:"A",value:0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="9"/>
+        <v>content:"The most complete end-to-end version of the product with marketable characteristics.",type:"B",value:0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="9"/>
+        <v>content:"The minimum end-to-end version of the product with marketable characteristics. ",type:"C",value:1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="9"/>
+        <v>content:"None of the above.",type:"D",value:0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>